--- a/example_maturity_at_size.xlsx
+++ b/example_maturity_at_size.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Dropbox\MEGAsync\GitHub\maturity_size\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -353,7 +353,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/example_maturity_at_size.xlsx
+++ b/example_maturity_at_size.xlsx
@@ -353,7 +353,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,7 +396,7 @@
         <v>220</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -407,7 +407,7 @@
         <v>230</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -418,7 +418,7 @@
         <v>240</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -429,7 +429,7 @@
         <v>250</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -440,7 +440,7 @@
         <v>260</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -451,7 +451,7 @@
         <v>270</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -462,7 +462,7 @@
         <v>280</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>100</v>
